--- a/Excel-XLSX/UN-ANG.xlsx
+++ b/Excel-XLSX/UN-ANG.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Bau54O</t>
+    <t>7y1bbS</t>
   </si>
   <si>
     <t>1976</t>
@@ -2487,7 +2487,7 @@
     <t>536</t>
   </si>
   <si>
-    <t>22452</t>
+    <t>22407</t>
   </si>
   <si>
     <t>537</t>
@@ -39417,10 +39417,10 @@
         <v>823</v>
       </c>
       <c r="O537" s="2" t="s">
-        <v>575</v>
+        <v>766</v>
       </c>
       <c r="P537" s="2" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="Q537" s="2" t="s">
         <v>33</v>
@@ -39961,7 +39961,7 @@
         <v>778</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P545" s="2" t="s">
         <v>33</v>
